--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC4290-6E5F-4397-BADD-E0CA80DE83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416552A2-74C3-4CBC-A5FB-E7F80DB66132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
-    <sheet name="4th Q 2022" sheetId="1" r:id="rId1"/>
-    <sheet name="1ST Q 2023" sheetId="2" r:id="rId2"/>
-    <sheet name="2ND Q 2023" sheetId="3" r:id="rId3"/>
+    <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="4th Q 2022" sheetId="1" r:id="rId2"/>
+    <sheet name="1ST Q 2023" sheetId="2" r:id="rId3"/>
+    <sheet name="2ND Q 2023" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -272,6 +265,42 @@
   </si>
   <si>
     <t>FOR APRIL  TO JUNE 31, 2023</t>
+  </si>
+  <si>
+    <t>2/2-18/2022</t>
+  </si>
+  <si>
+    <t>2/21-5/21/2022</t>
+  </si>
+  <si>
+    <t>AMBAT, MARILOU</t>
+  </si>
+  <si>
+    <t>CITY  MAYOR</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>ADMIN. AIDE III</t>
+  </si>
+  <si>
+    <t>SWITZERLAND</t>
+  </si>
+  <si>
+    <t>CAMBODIA</t>
+  </si>
+  <si>
+    <t>7/9-13/2022</t>
+  </si>
+  <si>
+    <t>7/28-31/2022</t>
+  </si>
+  <si>
+    <t>FOR JANUARY 1  TO DECEMBER 31, 2022</t>
+  </si>
+  <si>
+    <t>HON. AGNES D. TOLENTINO</t>
   </si>
 </sst>
 </file>
@@ -408,16 +437,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,42 +479,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,6 +813,713 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DF9A36-63D6-48C0-BA50-C3688FE92ADF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12SCHEDULE OF FOREIGN TRAVELS OF EMPLOYEES AND OFFICERS</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: JUEL D. COPER
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9498AB-FD2E-4DA7-BDA7-F58CF1920EB5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -816,199 +1558,199 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1023,16 +1765,16 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15" t="s">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1047,16 +1789,16 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1071,16 +1813,16 @@
       <c r="E12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15" t="s">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1095,16 +1837,16 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1119,16 +1861,16 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1143,16 +1885,16 @@
       <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1167,16 +1909,16 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1191,16 +1933,16 @@
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1215,16 +1957,16 @@
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15" t="s">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1239,16 +1981,16 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1263,16 +2005,16 @@
       <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15" t="s">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1287,16 +2029,16 @@
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1311,16 +2053,16 @@
       <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1335,16 +2077,16 @@
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15" t="s">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1359,9 +2101,9 @@
       <c r="E24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1"/>
@@ -1369,6 +2111,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A2:A3"/>
@@ -1376,7 +2119,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1392,14 +2134,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B596E40-85E7-4A5B-980E-739A3E3DC7AF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1431,302 +2173,302 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
@@ -1754,7 +2496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8542EB3B-A2E9-4752-AA53-DA41B4764D33}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1793,302 +2535,302 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="15"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="15"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9800C73-FD00-4543-9369-A95095FEB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EFB02D-BB78-4BDA-B4B6-4C41DD851D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="167">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t>JULY 28 TO AUG 1, 2023</t>
+  </si>
+  <si>
+    <t>SEPINO, MARIE CHIARRE M.</t>
+  </si>
+  <si>
+    <t>SOCIAL WELFARE ASSISTANT</t>
+  </si>
+  <si>
+    <t>NOVEMBER 13, 2023 TO JANUARY 26, 2024</t>
   </si>
 </sst>
 </file>
@@ -703,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,6 +758,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,8 +785,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,51 +1125,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1820,51 +1832,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2435,51 +2447,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2713,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
 Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
@@ -2738,51 +2750,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3120,7 +3132,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -3138,51 +3150,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3467,7 @@
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="9"/>
@@ -3481,7 +3493,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="2"/>
@@ -3505,7 +3517,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="14"/>
@@ -3842,8 +3854,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3860,51 +3872,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3921,19 +3933,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
